--- a/tests/data.xlsx
+++ b/tests/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,14 +473,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3886.896</v>
+        <v>937.734</v>
       </c>
       <c r="C2" t="n">
-        <v>3896.408</v>
+        <v>947.246</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -489,7 +489,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3886.9 to 3896.4 MHz</t>
+          <t>GSM-900 assignment from 937.7 to 947.2 MHz</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,14 +506,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>452.964</v>
+        <v>531.003</v>
       </c>
       <c r="C3" t="n">
-        <v>454.609</v>
+        <v>532.648</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PMR assignment from 453.0 to 454.6 MHz</t>
+          <t>DVB-T UHF assignment from 531.0 to 532.6 MHz</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -539,14 +539,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>927.4880000000001</v>
+        <v>808.432</v>
       </c>
       <c r="C4" t="n">
-        <v>934.598</v>
+        <v>815.542</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GSM assignment from 927.5 to 934.6 MHz</t>
+          <t>LTE-800 assignment from 808.4 to 815.5 MHz</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -572,14 +572,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>454.034</v>
+        <v>553.025</v>
       </c>
       <c r="C5" t="n">
-        <v>455.935</v>
+        <v>554.925</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PMR assignment from 454.0 to 455.9 MHz</t>
+          <t>DVB-T UHF assignment from 553.0 to 554.9 MHz</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -605,14 +605,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3961.853</v>
+        <v>847.218</v>
       </c>
       <c r="C6" t="n">
-        <v>3966.23</v>
+        <v>851.5940000000001</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3961.9 to 3966.2 MHz</t>
+          <t>LTE-800 assignment from 847.2 to 851.6 MHz</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -638,14 +638,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>891.02</v>
+        <v>884.7430000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>894.0119999999999</v>
+        <v>887.735</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GSM assignment from 891.0 to 894.0 MHz</t>
+          <t>GSM-900 assignment from 884.7 to 887.7 MHz</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -671,14 +671,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>942.029</v>
+        <v>813.77</v>
       </c>
       <c r="C8" t="n">
-        <v>944.106</v>
+        <v>815.847</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GSM assignment from 942.0 to 944.1 MHz</t>
+          <t>LTE-800 assignment from 813.8 to 815.8 MHz</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -704,14 +704,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5948.179</v>
+        <v>792.347</v>
       </c>
       <c r="C9" t="n">
-        <v>5954.293</v>
+        <v>798.462</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Microwave assignment from 5948.2 to 5954.3 MHz</t>
+          <t>LTE-800 assignment from 792.3 to 798.5 MHz</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -737,14 +737,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>468.029</v>
+        <v>957.2619999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>470</v>
+        <v>960</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PMR assignment from 468.0 to 470.0 MHz</t>
+          <t>GSM-900 assignment from 957.3 to 960.0 MHz</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -770,14 +770,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3438.971</v>
+        <v>834.832</v>
       </c>
       <c r="C11" t="n">
-        <v>3445.845</v>
+        <v>841.706</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5G assignment from 3439.0 to 3445.8 MHz</t>
+          <t>LTE-800 assignment from 834.8 to 841.7 MHz</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -803,14 +803,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6340.764</v>
+        <v>856.163</v>
       </c>
       <c r="C12" t="n">
-        <v>6342.581</v>
+        <v>857.979</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6340.8 to 6342.6 MHz</t>
+          <t>LTE-800 assignment from 856.2 to 858.0 MHz</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -836,14 +836,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>458.078</v>
+        <v>894.455</v>
       </c>
       <c r="C13" t="n">
-        <v>460.237</v>
+        <v>896.614</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PMR assignment from 458.1 to 460.2 MHz</t>
+          <t>GSM-900 assignment from 894.5 to 896.6 MHz</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -869,14 +869,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4120.3</v>
+        <v>908.638</v>
       </c>
       <c r="C14" t="n">
-        <v>4124.853</v>
+        <v>913.1900000000001</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Satellite assignment from 4120.3 to 4124.9 MHz</t>
+          <t>GSM-900 assignment from 908.6 to 913.2 MHz</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -902,14 +902,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1832.909</v>
+        <v>904.727</v>
       </c>
       <c r="C15" t="n">
-        <v>1836.242</v>
+        <v>908.0599999999999</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LTE assignment from 1832.9 to 1836.2 MHz</t>
+          <t>GSM-900 assignment from 904.7 to 908.1 MHz</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -935,14 +935,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1872.438</v>
+        <v>818.874</v>
       </c>
       <c r="C16" t="n">
-        <v>1880</v>
+        <v>821</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LTE assignment from 1872.4 to 1880.0 MHz</t>
+          <t>LTE-800 assignment from 818.9 to 821.0 MHz</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -968,14 +968,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3992.789</v>
+        <v>699.42</v>
       </c>
       <c r="C17" t="n">
-        <v>4002.445</v>
+        <v>709.076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3992.8 to 4002.4 MHz</t>
+          <t>DVB-T UHF assignment from 699.4 to 709.1 MHz</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1001,14 +1001,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>455.629</v>
+        <v>840.592</v>
       </c>
       <c r="C18" t="n">
-        <v>457.365</v>
+        <v>842.328</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PMR assignment from 455.6 to 457.4 MHz</t>
+          <t>LTE-800 assignment from 840.6 to 842.3 MHz</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1034,14 +1034,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6024.159</v>
+        <v>547.698</v>
       </c>
       <c r="C19" t="n">
-        <v>6024.314</v>
+        <v>547.853</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6024.2 to 6024.3 MHz</t>
+          <t>DVB-T UHF assignment from 547.7 to 547.9 MHz</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1067,14 +1067,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1843.54</v>
+        <v>906.866</v>
       </c>
       <c r="C20" t="n">
-        <v>1849.639</v>
+        <v>912.965</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>LTE assignment from 1843.5 to 1849.6 MHz</t>
+          <t>GSM-900 assignment from 906.9 to 913.0 MHz</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1100,14 +1100,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1864.628</v>
+        <v>817.534</v>
       </c>
       <c r="C21" t="n">
-        <v>1873.144</v>
+        <v>821</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>LTE assignment from 1864.6 to 1873.1 MHz</t>
+          <t>LTE-800 assignment from 817.5 to 821.0 MHz</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1133,14 +1133,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1762.556</v>
+        <v>841.018</v>
       </c>
       <c r="C22" t="n">
-        <v>1765.875</v>
+        <v>844.338</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LTE assignment from 1762.6 to 1765.9 MHz</t>
+          <t>LTE-800 assignment from 841.0 to 844.3 MHz</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1166,14 +1166,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1859.939</v>
+        <v>816.729</v>
       </c>
       <c r="C23" t="n">
-        <v>1864.714</v>
+        <v>821</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>LTE assignment from 1859.9 to 1864.7 MHz</t>
+          <t>LTE-800 assignment from 816.7 to 821.0 MHz</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1199,14 +1199,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3703.553</v>
+        <v>905.867</v>
       </c>
       <c r="C24" t="n">
-        <v>3709.21</v>
+        <v>911.523</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5G assignment from 3703.6 to 3709.2 MHz</t>
+          <t>GSM-900 assignment from 905.9 to 911.5 MHz</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1232,14 +1232,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3608.57</v>
+        <v>847.159</v>
       </c>
       <c r="C25" t="n">
-        <v>3612.903</v>
+        <v>851.492</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5G assignment from 3608.6 to 3612.9 MHz</t>
+          <t>LTE-800 assignment from 847.2 to 851.5 MHz</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1265,14 +1265,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5940.683</v>
+        <v>791.9109999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>5947.084</v>
+        <v>798.312</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Microwave assignment from 5940.7 to 5947.1 MHz</t>
+          <t>LTE-800 assignment from 791.9 to 798.3 MHz</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1298,14 +1298,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3769.526</v>
+        <v>929.737</v>
       </c>
       <c r="C27" t="n">
-        <v>3775.61</v>
+        <v>935.821</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3769.5 to 3775.6 MHz</t>
+          <t>GSM-900 assignment from 929.7 to 935.8 MHz</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1331,14 +1331,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>451.463</v>
+        <v>927.617</v>
       </c>
       <c r="C28" t="n">
-        <v>454.431</v>
+        <v>930.586</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PMR assignment from 451.5 to 454.4 MHz</t>
+          <t>GSM-900 assignment from 927.6 to 930.6 MHz</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1364,14 +1364,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6328.252</v>
+        <v>952.476</v>
       </c>
       <c r="C29" t="n">
-        <v>6334.623</v>
+        <v>958.847</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6328.3 to 6334.6 MHz</t>
+          <t>GSM-900 assignment from 952.5 to 958.8 MHz</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1397,14 +1397,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3752.429</v>
+        <v>857.615</v>
       </c>
       <c r="C30" t="n">
-        <v>3755.74</v>
+        <v>860.926</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5G assignment from 3752.4 to 3755.7 MHz</t>
+          <t>LTE-800 assignment from 857.6 to 860.9 MHz</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1430,14 +1430,14 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.639</v>
+        <v>858.298</v>
       </c>
       <c r="C31" t="n">
-        <v>954.434</v>
+        <v>861.092</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>GSM assignment from 951.6 to 954.4 MHz</t>
+          <t>LTE-800 assignment from 858.3 to 861.1 MHz</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1463,14 +1463,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4129.505</v>
+        <v>954.265</v>
       </c>
       <c r="C32" t="n">
-        <v>4129.673</v>
+        <v>954.434</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Satellite assignment from 4129.5 to 4129.7 MHz</t>
+          <t>GSM-900 assignment from 954.3 to 954.4 MHz</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1496,14 +1496,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3810.832</v>
+        <v>556.8440000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>3812.118</v>
+        <v>558.131</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3810.8 to 3812.1 MHz</t>
+          <t>DVB-T UHF assignment from 556.8 to 558.1 MHz</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1529,14 +1529,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3528.958</v>
+        <v>935.989</v>
       </c>
       <c r="C34" t="n">
-        <v>3534.194</v>
+        <v>941.225</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5G assignment from 3529.0 to 3534.2 MHz</t>
+          <t>GSM-900 assignment from 936.0 to 941.2 MHz</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1562,14 +1562,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>956.771</v>
+        <v>913.0410000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>960</v>
+        <v>915</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>GSM assignment from 956.8 to 960.0 MHz</t>
+          <t>GSM-900 assignment from 913.0 to 915.0 MHz</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1595,14 +1595,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3520.05</v>
+        <v>840.725</v>
       </c>
       <c r="C36" t="n">
-        <v>3522.97</v>
+        <v>843.645</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5G assignment from 3520.1 to 3523.0 MHz</t>
+          <t>LTE-800 assignment from 840.7 to 843.6 MHz</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1628,14 +1628,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6175.837</v>
+        <v>805.578</v>
       </c>
       <c r="C37" t="n">
-        <v>6176.446</v>
+        <v>806.187</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6175.8 to 6176.4 MHz</t>
+          <t>LTE-800 assignment from 805.6 to 806.2 MHz</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1661,14 +1661,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>898.925</v>
+        <v>933.145</v>
       </c>
       <c r="C38" t="n">
-        <v>900.46</v>
+        <v>934.6799999999999</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>GSM assignment from 898.9 to 900.5 MHz</t>
+          <t>GSM-900 assignment from 933.1 to 934.7 MHz</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1694,14 +1694,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1750.907</v>
+        <v>839.02</v>
       </c>
       <c r="C39" t="n">
-        <v>1757.661</v>
+        <v>845.774</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LTE assignment from 1750.9 to 1757.7 MHz</t>
+          <t>LTE-800 assignment from 839.0 to 845.8 MHz</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1727,14 +1727,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4063.38</v>
+        <v>812.1180000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>4067.121</v>
+        <v>815.859</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Satellite assignment from 4063.4 to 4067.1 MHz</t>
+          <t>LTE-800 assignment from 812.1 to 815.9 MHz</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1760,14 +1760,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>460.18</v>
+        <v>898.216</v>
       </c>
       <c r="C41" t="n">
-        <v>461.174</v>
+        <v>899.21</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PMR assignment from 460.2 to 461.2 MHz</t>
+          <t>GSM-900 assignment from 898.2 to 899.2 MHz</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1793,14 +1793,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>453.544</v>
+        <v>931.342</v>
       </c>
       <c r="C42" t="n">
-        <v>454.048</v>
+        <v>931.845</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PMR assignment from 453.5 to 454.0 MHz</t>
+          <t>GSM-900 assignment from 931.3 to 931.8 MHz</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1826,14 +1826,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3683.749</v>
+        <v>904.179</v>
       </c>
       <c r="C43" t="n">
-        <v>3691.863</v>
+        <v>912.293</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5G assignment from 3683.7 to 3691.9 MHz</t>
+          <t>GSM-900 assignment from 904.2 to 912.3 MHz</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1859,14 +1859,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6269.778</v>
+        <v>740.157</v>
       </c>
       <c r="C44" t="n">
-        <v>6273.707</v>
+        <v>744.085</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6269.8 to 6273.7 MHz</t>
+          <t>DVB-T UHF assignment from 740.2 to 744.1 MHz</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1892,14 +1892,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>456.48</v>
+        <v>936.596</v>
       </c>
       <c r="C45" t="n">
-        <v>457.704</v>
+        <v>937.8200000000001</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PMR assignment from 456.5 to 457.7 MHz</t>
+          <t>GSM-900 assignment from 936.6 to 937.8 MHz</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1925,14 +1925,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3502.919</v>
+        <v>888.77</v>
       </c>
       <c r="C46" t="n">
-        <v>3509.553</v>
+        <v>895.404</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5G assignment from 3502.9 to 3509.6 MHz</t>
+          <t>GSM-900 assignment from 888.8 to 895.4 MHz</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -1958,14 +1958,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3496.499</v>
+        <v>798.014</v>
       </c>
       <c r="C47" t="n">
-        <v>3497.521</v>
+        <v>799.035</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5G assignment from 3496.5 to 3497.5 MHz</t>
+          <t>LTE-800 assignment from 798.0 to 799.0 MHz</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -1991,14 +1991,14 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>453.585</v>
+        <v>796.473</v>
       </c>
       <c r="C48" t="n">
-        <v>456.446</v>
+        <v>799.333</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PMR assignment from 453.6 to 456.4 MHz</t>
+          <t>LTE-800 assignment from 796.5 to 799.3 MHz</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2024,14 +2024,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4127.306</v>
+        <v>815.833</v>
       </c>
       <c r="C49" t="n">
-        <v>4131.41</v>
+        <v>819.938</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Satellite assignment from 4127.3 to 4131.4 MHz</t>
+          <t>LTE-800 assignment from 815.8 to 819.9 MHz</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2057,14 +2057,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>953.915</v>
+        <v>911.812</v>
       </c>
       <c r="C50" t="n">
-        <v>960</v>
+        <v>915</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>GSM assignment from 953.9 to 960.0 MHz</t>
+          <t>GSM-900 assignment from 911.8 to 915.0 MHz</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2090,14 +2090,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>909.41</v>
+        <v>801.796</v>
       </c>
       <c r="C51" t="n">
-        <v>918.818</v>
+        <v>811.204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>GSM assignment from 909.4 to 918.8 MHz</t>
+          <t>LTE-800 assignment from 801.8 to 811.2 MHz</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2123,14 +2123,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>460.426</v>
+        <v>806.913</v>
       </c>
       <c r="C52" t="n">
-        <v>467.376</v>
+        <v>813.8630000000001</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PMR assignment from 460.4 to 467.4 MHz</t>
+          <t>LTE-800 assignment from 806.9 to 813.9 MHz</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2156,14 +2156,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3709.02</v>
+        <v>791.524</v>
       </c>
       <c r="C53" t="n">
-        <v>3714.009</v>
+        <v>796.514</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3709.0 to 3714.0 MHz</t>
+          <t>LTE-800 assignment from 791.5 to 796.5 MHz</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2189,14 +2189,14 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4059.749</v>
+        <v>852.907</v>
       </c>
       <c r="C54" t="n">
-        <v>4062.899</v>
+        <v>856.057</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Satellite assignment from 4059.7 to 4062.9 MHz</t>
+          <t>LTE-800 assignment from 852.9 to 856.1 MHz</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2222,14 +2222,14 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6242.53</v>
+        <v>901.635</v>
       </c>
       <c r="C55" t="n">
-        <v>6245.11</v>
+        <v>904.215</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6242.5 to 6245.1 MHz</t>
+          <t>GSM-900 assignment from 901.6 to 904.2 MHz</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2255,14 +2255,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>459.248</v>
+        <v>941.549</v>
       </c>
       <c r="C56" t="n">
-        <v>468.318</v>
+        <v>950.62</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PMR assignment from 459.2 to 468.3 MHz</t>
+          <t>GSM-900 assignment from 941.5 to 950.6 MHz</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2288,14 +2288,14 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6246.907</v>
+        <v>809.708</v>
       </c>
       <c r="C57" t="n">
-        <v>6253.629</v>
+        <v>816.4299999999999</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6246.9 to 6253.6 MHz</t>
+          <t>LTE-800 assignment from 809.7 to 816.4 MHz</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2321,14 +2321,14 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>459.485</v>
+        <v>941.973</v>
       </c>
       <c r="C58" t="n">
-        <v>465.248</v>
+        <v>947.735</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PMR assignment from 459.5 to 465.2 MHz</t>
+          <t>GSM-900 assignment from 942.0 to 947.7 MHz</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2354,14 +2354,14 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1878.079</v>
+        <v>913.8150000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>1880</v>
+        <v>915</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>LTE assignment from 1878.1 to 1880.0 MHz</t>
+          <t>GSM-900 assignment from 913.8 to 915.0 MHz</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2387,14 +2387,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6298.112</v>
+        <v>762.3579999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>6307.647</v>
+        <v>771.893</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6298.1 to 6307.6 MHz</t>
+          <t>DVB-T UHF assignment from 762.4 to 771.9 MHz</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2420,14 +2420,14 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3985.574</v>
+        <v>693.766</v>
       </c>
       <c r="C61" t="n">
-        <v>3995.379</v>
+        <v>703.572</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3985.6 to 3995.4 MHz</t>
+          <t>DVB-T UHF assignment from 693.8 to 703.6 MHz</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2453,14 +2453,14 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>6020.265</v>
+        <v>544.646</v>
       </c>
       <c r="C62" t="n">
-        <v>6023.023</v>
+        <v>547.404</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6020.3 to 6023.0 MHz</t>
+          <t>DVB-T UHF assignment from 544.6 to 547.4 MHz</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2486,14 +2486,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3557.482</v>
+        <v>624.324</v>
       </c>
       <c r="C63" t="n">
-        <v>3565.94</v>
+        <v>632.782</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5G assignment from 3557.5 to 3565.9 MHz</t>
+          <t>DVB-T UHF assignment from 624.3 to 632.8 MHz</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2519,14 +2519,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>461.685</v>
+        <v>945.91</v>
       </c>
       <c r="C64" t="n">
-        <v>470</v>
+        <v>955.812</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>PMR assignment from 461.7 to 470.0 MHz</t>
+          <t>GSM-900 assignment from 945.9 to 955.8 MHz</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2552,14 +2552,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1858.276</v>
+        <v>813.053</v>
       </c>
       <c r="C65" t="n">
-        <v>1865.71</v>
+        <v>820.486</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>LTE assignment from 1858.3 to 1865.7 MHz</t>
+          <t>DVB-T UHF assignment from 813.1 to 820.5 MHz</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2585,14 +2585,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1770.754</v>
+        <v>842.425</v>
       </c>
       <c r="C66" t="n">
-        <v>1773.761</v>
+        <v>845.432</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>LTE assignment from 1770.8 to 1773.8 MHz</t>
+          <t>LTE-800 assignment from 842.4 to 845.4 MHz</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2618,14 +2618,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1856.535</v>
+        <v>816.145</v>
       </c>
       <c r="C67" t="n">
-        <v>1865.676</v>
+        <v>821</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>LTE assignment from 1856.5 to 1865.7 MHz</t>
+          <t>LTE-800 assignment from 816.1 to 821.0 MHz</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2651,14 +2651,14 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1742.832</v>
+        <v>931.605</v>
       </c>
       <c r="C68" t="n">
-        <v>1743.635</v>
+        <v>932.408</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>LTE assignment from 1742.8 to 1743.6 MHz</t>
+          <t>GSM-900 assignment from 931.6 to 932.4 MHz</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2684,14 +2684,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>456.422</v>
+        <v>800.802</v>
       </c>
       <c r="C69" t="n">
-        <v>460.24</v>
+        <v>804.62</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PMR assignment from 456.4 to 460.2 MHz</t>
+          <t>LTE-800 assignment from 800.8 to 804.6 MHz</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2717,14 +2717,14 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>450.683</v>
+        <v>833.042</v>
       </c>
       <c r="C70" t="n">
-        <v>455.392</v>
+        <v>837.752</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>PMR assignment from 450.7 to 455.4 MHz</t>
+          <t>LTE-800 assignment from 833.0 to 837.8 MHz</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2750,14 +2750,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6219.826</v>
+        <v>900.088</v>
       </c>
       <c r="C71" t="n">
-        <v>6220.228</v>
+        <v>900.49</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6219.8 to 6220.2 MHz</t>
+          <t>GSM-900 assignment from 900.1 to 900.5 MHz</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2783,14 +2783,14 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>456.844</v>
+        <v>610.835</v>
       </c>
       <c r="C72" t="n">
-        <v>458.202</v>
+        <v>612.192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PMR assignment from 456.8 to 458.2 MHz</t>
+          <t>DVB-T UHF assignment from 610.8 to 612.2 MHz</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -2816,14 +2816,14 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>916.124</v>
+        <v>648.7910000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>924.5599999999999</v>
+        <v>657.227</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>GSM assignment from 916.1 to 924.6 MHz</t>
+          <t>DVB-T UHF assignment from 648.8 to 657.2 MHz</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -2849,14 +2849,14 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>935.261</v>
+        <v>948.783</v>
       </c>
       <c r="C74" t="n">
-        <v>936.731</v>
+        <v>950.253</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>GSM assignment from 935.3 to 936.7 MHz</t>
+          <t>GSM-900 assignment from 948.8 to 950.3 MHz</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -2882,14 +2882,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>905.514</v>
+        <v>935.981</v>
       </c>
       <c r="C75" t="n">
-        <v>913.486</v>
+        <v>943.953</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>GSM assignment from 905.5 to 913.5 MHz</t>
+          <t>GSM-900 assignment from 936.0 to 944.0 MHz</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2915,14 +2915,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1723.259</v>
+        <v>882.668</v>
       </c>
       <c r="C76" t="n">
-        <v>1723.61</v>
+        <v>883.018</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>LTE assignment from 1723.3 to 1723.6 MHz</t>
+          <t>GSM-900 assignment from 882.7 to 883.0 MHz</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2948,14 +2948,14 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>6272.291</v>
+        <v>742.126</v>
       </c>
       <c r="C77" t="n">
-        <v>6276.44</v>
+        <v>746.275</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6272.3 to 6276.4 MHz</t>
+          <t>DVB-T UHF assignment from 742.1 to 746.3 MHz</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -2981,14 +2981,14 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>899.769</v>
+        <v>839.2569999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>905.307</v>
+        <v>844.794</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>GSM assignment from 899.8 to 905.3 MHz</t>
+          <t>LTE-800 assignment from 839.3 to 844.8 MHz</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3014,14 +3014,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>902.115</v>
+        <v>840.1180000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>911.668</v>
+        <v>849.671</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>GSM assignment from 902.1 to 911.7 MHz</t>
+          <t>LTE-800 assignment from 840.1 to 849.7 MHz</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3047,14 +3047,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4005.249</v>
+        <v>709.183</v>
       </c>
       <c r="C80" t="n">
-        <v>4009.503</v>
+        <v>713.437</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Satellite assignment from 4005.2 to 4009.5 MHz</t>
+          <t>DVB-T UHF assignment from 709.2 to 713.4 MHz</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3080,14 +3080,14 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3702.381</v>
+        <v>812.978</v>
       </c>
       <c r="C81" t="n">
-        <v>3702.623</v>
+        <v>813.22</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5G assignment from 3702.4 to 3702.6 MHz</t>
+          <t>LTE-800 assignment from 813.0 to 813.2 MHz</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3113,14 +3113,14 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>883.218</v>
+        <v>485.925</v>
       </c>
       <c r="C82" t="n">
-        <v>891.787</v>
+        <v>494.494</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>GSM assignment from 883.2 to 891.8 MHz</t>
+          <t>DVB-T UHF assignment from 485.9 to 494.5 MHz</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3146,14 +3146,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3704.582</v>
+        <v>950.954</v>
       </c>
       <c r="C83" t="n">
-        <v>3712.671</v>
+        <v>959.043</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>5G assignment from 3704.6 to 3712.7 MHz</t>
+          <t>GSM-900 assignment from 951.0 to 959.0 MHz</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3179,14 +3179,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>931.332</v>
+        <v>902.092</v>
       </c>
       <c r="C84" t="n">
-        <v>931.908</v>
+        <v>902.668</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>GSM assignment from 931.3 to 931.9 MHz</t>
+          <t>GSM-900 assignment from 902.1 to 902.7 MHz</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3212,14 +3212,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3830.186</v>
+        <v>933.87</v>
       </c>
       <c r="C85" t="n">
-        <v>3830.437</v>
+        <v>934.122</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3830.2 to 3830.4 MHz</t>
+          <t>GSM-900 assignment from 933.9 to 934.1 MHz</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3245,14 +3245,14 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1801.155</v>
+        <v>806.6420000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>1808.026</v>
+        <v>813.513</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>LTE assignment from 1801.2 to 1808.0 MHz</t>
+          <t>LTE-800 assignment from 806.6 to 813.5 MHz</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3278,14 +3278,14 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1869.579</v>
+        <v>957.105</v>
       </c>
       <c r="C87" t="n">
-        <v>1878.264</v>
+        <v>960</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>LTE assignment from 1869.6 to 1878.3 MHz</t>
+          <t>GSM-900 assignment from 957.1 to 960.0 MHz</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3311,14 +3311,14 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3628.773</v>
+        <v>944.494</v>
       </c>
       <c r="C88" t="n">
-        <v>3630.146</v>
+        <v>945.867</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>5G assignment from 3628.8 to 3630.1 MHz</t>
+          <t>GSM-900 assignment from 944.5 to 945.9 MHz</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3344,14 +3344,14 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3649.75</v>
+        <v>809.152</v>
       </c>
       <c r="C89" t="n">
-        <v>3657.972</v>
+        <v>817.374</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>5G assignment from 3649.7 to 3658.0 MHz</t>
+          <t>LTE-800 assignment from 809.2 to 817.4 MHz</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3377,14 +3377,14 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1721.722</v>
+        <v>793.011</v>
       </c>
       <c r="C90" t="n">
-        <v>1722.82</v>
+        <v>794.109</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>LTE assignment from 1721.7 to 1722.8 MHz</t>
+          <t>LTE-800 assignment from 793.0 to 794.1 MHz</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3410,14 +3410,14 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1825.428</v>
+        <v>810.807</v>
       </c>
       <c r="C91" t="n">
-        <v>1826.233</v>
+        <v>811.612</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>LTE assignment from 1825.4 to 1826.2 MHz</t>
+          <t>LTE-800 assignment from 810.8 to 811.6 MHz</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3443,14 +3443,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3711.613</v>
+        <v>925.7910000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>3719.776</v>
+        <v>933.954</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3711.6 to 3719.8 MHz</t>
+          <t>GSM-900 assignment from 925.8 to 934.0 MHz</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3476,14 +3476,14 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1827.749</v>
+        <v>948.689</v>
       </c>
       <c r="C93" t="n">
-        <v>1834.075</v>
+        <v>955.016</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>LTE assignment from 1827.7 to 1834.1 MHz</t>
+          <t>GSM-900 assignment from 948.7 to 955.0 MHz</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3509,14 +3509,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>943.475</v>
+        <v>907.318</v>
       </c>
       <c r="C94" t="n">
-        <v>946.367</v>
+        <v>910.21</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>GSM assignment from 943.5 to 946.4 MHz</t>
+          <t>GSM-900 assignment from 907.3 to 910.2 MHz</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3542,14 +3542,14 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>468.82</v>
+        <v>819.725</v>
       </c>
       <c r="C95" t="n">
-        <v>470</v>
+        <v>821</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PMR assignment from 468.8 to 470.0 MHz</t>
+          <t>LTE-800 assignment from 819.7 to 821.0 MHz</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3575,11 +3575,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>953.53</v>
+        <v>956.646</v>
       </c>
       <c r="C96" t="n">
         <v>960</v>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>GSM assignment from 953.5 to 960.0 MHz</t>
+          <t>GSM-900 assignment from 956.6 to 960.0 MHz</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3608,14 +3608,14 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>939.609</v>
+        <v>765.026</v>
       </c>
       <c r="C97" t="n">
-        <v>940.73</v>
+        <v>766.147</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>GSM assignment from 939.6 to 940.7 MHz</t>
+          <t>DVB-T UHF assignment from 765.0 to 766.1 MHz</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3641,14 +3641,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1764.088</v>
+        <v>890.8819999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>1773.054</v>
+        <v>899.847</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>LTE assignment from 1764.1 to 1773.1 MHz</t>
+          <t>GSM-900 assignment from 890.9 to 899.8 MHz</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3674,14 +3674,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1863.01</v>
+        <v>824.004</v>
       </c>
       <c r="C99" t="n">
-        <v>1864.013</v>
+        <v>825.008</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>LTE assignment from 1863.0 to 1864.0 MHz</t>
+          <t>DVB-T UHF assignment from 824.0 to 825.0 MHz</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3707,14 +3707,14 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3779.292</v>
+        <v>957.321</v>
       </c>
       <c r="C100" t="n">
-        <v>3785.069</v>
+        <v>960</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>5G assignment from 3779.3 to 3785.1 MHz</t>
+          <t>GSM-900 assignment from 957.3 to 960.0 MHz</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3740,14 +3740,14 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6071.312</v>
+        <v>584.645</v>
       </c>
       <c r="C101" t="n">
-        <v>6074.666</v>
+        <v>587.999</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6071.3 to 6074.7 MHz</t>
+          <t>DVB-T UHF assignment from 584.6 to 588.0 MHz</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3773,14 +3773,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3715.84</v>
+        <v>779.5069999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>3723.757</v>
+        <v>787.425</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>5G assignment from 3715.8 to 3723.8 MHz</t>
+          <t>DVB-T UHF assignment from 779.5 to 787.4 MHz</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3806,14 +3806,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3422.966</v>
+        <v>792.669</v>
       </c>
       <c r="C103" t="n">
-        <v>3428.506</v>
+        <v>798.21</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>5G assignment from 3423.0 to 3428.5 MHz</t>
+          <t>LTE-800 assignment from 792.7 to 798.2 MHz</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -3839,14 +3839,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>907.722</v>
+        <v>801.177</v>
       </c>
       <c r="C104" t="n">
-        <v>908.981</v>
+        <v>802.4349999999999</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>GSM assignment from 907.7 to 909.0 MHz</t>
+          <t>LTE-800 assignment from 801.2 to 802.4 MHz</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3872,14 +3872,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>461.746</v>
+        <v>849.928</v>
       </c>
       <c r="C105" t="n">
-        <v>462.847</v>
+        <v>851.029</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>PMR assignment from 461.7 to 462.8 MHz</t>
+          <t>LTE-800 assignment from 849.9 to 851.0 MHz</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3905,14 +3905,14 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>6122.929</v>
+        <v>625.091</v>
       </c>
       <c r="C106" t="n">
-        <v>6131.859</v>
+        <v>634.021</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6122.9 to 6131.9 MHz</t>
+          <t>DVB-T UHF assignment from 625.1 to 634.0 MHz</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3938,14 +3938,14 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3816.381</v>
+        <v>932.9299999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>3822.236</v>
+        <v>938.785</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3816.4 to 3822.2 MHz</t>
+          <t>GSM-900 assignment from 932.9 to 938.8 MHz</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3971,14 +3971,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>6397.677</v>
+        <v>859.47</v>
       </c>
       <c r="C108" t="n">
-        <v>6407.538</v>
+        <v>862</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6397.7 to 6407.5 MHz</t>
+          <t>LTE-800 assignment from 859.5 to 862.0 MHz</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4004,14 +4004,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1791.402</v>
+        <v>658.332</v>
       </c>
       <c r="C109" t="n">
-        <v>1795.244</v>
+        <v>662.174</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>LTE assignment from 1791.4 to 1795.2 MHz</t>
+          <t>DVB-T UHF assignment from 658.3 to 662.2 MHz</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4037,14 +4037,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>906.09</v>
+        <v>599.129</v>
       </c>
       <c r="C110" t="n">
-        <v>910.491</v>
+        <v>603.53</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>GSM assignment from 906.1 to 910.5 MHz</t>
+          <t>DVB-T UHF assignment from 599.1 to 603.5 MHz</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4070,14 +4070,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>884.448</v>
+        <v>492.015</v>
       </c>
       <c r="C111" t="n">
-        <v>885.724</v>
+        <v>493.291</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>GSM assignment from 884.4 to 885.7 MHz</t>
+          <t>DVB-T UHF assignment from 492.0 to 493.3 MHz</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4103,14 +4103,14 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>6297.276</v>
+        <v>905.366</v>
       </c>
       <c r="C112" t="n">
-        <v>6303.152</v>
+        <v>911.241</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6297.3 to 6303.2 MHz</t>
+          <t>GSM-900 assignment from 905.4 to 911.2 MHz</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4136,14 +4136,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>886.548</v>
+        <v>927.818</v>
       </c>
       <c r="C113" t="n">
-        <v>891.879</v>
+        <v>933.149</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>GSM assignment from 886.5 to 891.9 MHz</t>
+          <t>GSM-900 assignment from 927.8 to 933.1 MHz</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4169,14 +4169,14 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>468.428</v>
+        <v>957.976</v>
       </c>
       <c r="C114" t="n">
-        <v>468.955</v>
+        <v>958.503</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>PMR assignment from 468.4 to 469.0 MHz</t>
+          <t>GSM-900 assignment from 958.0 to 958.5 MHz</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4202,14 +4202,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>958.444</v>
+        <v>860.796</v>
       </c>
       <c r="C115" t="n">
-        <v>959.275</v>
+        <v>861.627</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>GSM assignment from 958.4 to 959.3 MHz</t>
+          <t>LTE-800 assignment from 860.8 to 861.6 MHz</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4235,14 +4235,14 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1798.404</v>
+        <v>942.785</v>
       </c>
       <c r="C116" t="n">
-        <v>1804.735</v>
+        <v>949.116</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>LTE assignment from 1798.4 to 1804.7 MHz</t>
+          <t>GSM-900 assignment from 942.8 to 949.1 MHz</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4268,14 +4268,14 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>929.577</v>
+        <v>850.199</v>
       </c>
       <c r="C117" t="n">
-        <v>935.462</v>
+        <v>856.0839999999999</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>GSM assignment from 929.6 to 935.5 MHz</t>
+          <t>LTE-800 assignment from 850.2 to 856.1 MHz</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4301,14 +4301,14 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>902.196</v>
+        <v>889.553</v>
       </c>
       <c r="C118" t="n">
-        <v>911.705</v>
+        <v>899.062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>GSM assignment from 902.2 to 911.7 MHz</t>
+          <t>GSM-900 assignment from 889.6 to 899.1 MHz</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4334,14 +4334,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>3838.413</v>
+        <v>840.044</v>
       </c>
       <c r="C119" t="n">
-        <v>3840.376</v>
+        <v>842.006</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3838.4 to 3840.4 MHz</t>
+          <t>LTE-800 assignment from 840.0 to 842.0 MHz</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4367,14 +4367,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>901.009</v>
+        <v>839.712</v>
       </c>
       <c r="C120" t="n">
-        <v>904.677</v>
+        <v>843.38</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>GSM assignment from 901.0 to 904.7 MHz</t>
+          <t>LTE-800 assignment from 839.7 to 843.4 MHz</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4400,14 +4400,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>450.614</v>
+        <v>832.937</v>
       </c>
       <c r="C121" t="n">
-        <v>453.484</v>
+        <v>835.807</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>PMR assignment from 450.6 to 453.5 MHz</t>
+          <t>LTE-800 assignment from 832.9 to 835.8 MHz</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4433,14 +4433,14 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>890.522</v>
+        <v>929.528</v>
       </c>
       <c r="C122" t="n">
-        <v>891.376</v>
+        <v>930.383</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>GSM assignment from 890.5 to 891.4 MHz</t>
+          <t>GSM-900 assignment from 929.5 to 930.4 MHz</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4466,14 +4466,14 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>461.655</v>
+        <v>849.789</v>
       </c>
       <c r="C123" t="n">
-        <v>465.895</v>
+        <v>854.03</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>PMR assignment from 461.7 to 465.9 MHz</t>
+          <t>LTE-800 assignment from 849.8 to 854.0 MHz</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4499,14 +4499,14 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1717.642</v>
+        <v>833.311</v>
       </c>
       <c r="C124" t="n">
-        <v>1718.003</v>
+        <v>833.672</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>LTE assignment from 1717.6 to 1718.0 MHz</t>
+          <t>LTE-800 assignment from 833.3 to 833.7 MHz</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4532,14 +4532,14 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>468.758</v>
+        <v>958.567</v>
       </c>
       <c r="C125" t="n">
-        <v>470</v>
+        <v>960</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PMR assignment from 468.8 to 470.0 MHz</t>
+          <t>GSM-900 assignment from 958.6 to 960.0 MHz</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4565,14 +4565,14 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>956.623</v>
+        <v>849.237</v>
       </c>
       <c r="C126" t="n">
-        <v>960</v>
+        <v>857.674</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>GSM assignment from 956.6 to 960.0 MHz</t>
+          <t>DVB-T UHF assignment from 849.2 to 857.7 MHz</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4598,14 +4598,14 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3565.513</v>
+        <v>632.194</v>
       </c>
       <c r="C127" t="n">
-        <v>3568.32</v>
+        <v>635.001</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>5G assignment from 3565.5 to 3568.3 MHz</t>
+          <t>DVB-T UHF assignment from 632.2 to 635.0 MHz</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4631,14 +4631,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>922.213</v>
+        <v>943.168</v>
       </c>
       <c r="C128" t="n">
-        <v>929.737</v>
+        <v>950.692</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>GSM assignment from 922.2 to 929.7 MHz</t>
+          <t>GSM-900 assignment from 943.2 to 950.7 MHz</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4664,14 +4664,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4062.334</v>
+        <v>904.688</v>
       </c>
       <c r="C129" t="n">
-        <v>4069.929</v>
+        <v>912.283</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Satellite assignment from 4062.3 to 4069.9 MHz</t>
+          <t>GSM-900 assignment from 904.7 to 912.3 MHz</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4697,14 +4697,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3802.318</v>
+        <v>931.972</v>
       </c>
       <c r="C130" t="n">
-        <v>3804.907</v>
+        <v>934.561</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3802.3 to 3804.9 MHz</t>
+          <t>GSM-900 assignment from 932.0 to 934.6 MHz</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4730,14 +4730,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>6363.232</v>
+        <v>857.468</v>
       </c>
       <c r="C131" t="n">
-        <v>6370.826</v>
+        <v>862</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6363.2 to 6370.8 MHz</t>
+          <t>LTE-800 assignment from 857.5 to 862.0 MHz</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -4763,14 +4763,14 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>462.76</v>
+        <v>810.476</v>
       </c>
       <c r="C132" t="n">
-        <v>468.011</v>
+        <v>815.727</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PMR assignment from 462.8 to 468.0 MHz</t>
+          <t>LTE-800 assignment from 810.5 to 815.7 MHz</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -4796,14 +4796,14 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>4125.239</v>
+        <v>815.713</v>
       </c>
       <c r="C133" t="n">
-        <v>4130.802</v>
+        <v>821</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Satellite assignment from 4125.2 to 4130.8 MHz</t>
+          <t>LTE-800 assignment from 815.7 to 821.0 MHz</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4829,14 +4829,14 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3560.99</v>
+        <v>938.718</v>
       </c>
       <c r="C134" t="n">
-        <v>3562.416</v>
+        <v>940.145</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>5G assignment from 3561.0 to 3562.4 MHz</t>
+          <t>GSM-900 assignment from 938.7 to 940.1 MHz</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4862,14 +4862,14 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>461.786</v>
+        <v>946.091</v>
       </c>
       <c r="C135" t="n">
-        <v>468.856</v>
+        <v>953.1609999999999</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PMR assignment from 461.8 to 468.9 MHz</t>
+          <t>GSM-900 assignment from 946.1 to 953.2 MHz</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4895,14 +4895,14 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3539.884</v>
+        <v>607.08</v>
       </c>
       <c r="C136" t="n">
-        <v>3545.825</v>
+        <v>613.02</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>5G assignment from 3539.9 to 3545.8 MHz</t>
+          <t>DVB-T UHF assignment from 607.1 to 613.0 MHz</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4928,14 +4928,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>4151.175</v>
+        <v>823.526</v>
       </c>
       <c r="C137" t="n">
-        <v>4154.723</v>
+        <v>827.074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Satellite assignment from 4151.2 to 4154.7 MHz</t>
+          <t>DVB-T UHF assignment from 823.5 to 827.1 MHz</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4961,14 +4961,14 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>911.327</v>
+        <v>625.048</v>
       </c>
       <c r="C138" t="n">
-        <v>917.586</v>
+        <v>631.307</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>GSM assignment from 911.3 to 917.6 MHz</t>
+          <t>DVB-T UHF assignment from 625.0 to 631.3 MHz</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -4994,14 +4994,14 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3458.682</v>
+        <v>527.506</v>
       </c>
       <c r="C139" t="n">
-        <v>3467.956</v>
+        <v>536.779</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>5G assignment from 3458.7 to 3468.0 MHz</t>
+          <t>DVB-T UHF assignment from 527.5 to 536.8 MHz</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5027,14 +5027,14 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>957.423</v>
+        <v>913.321</v>
       </c>
       <c r="C140" t="n">
-        <v>960</v>
+        <v>915</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>GSM assignment from 957.4 to 960.0 MHz</t>
+          <t>GSM-900 assignment from 913.3 to 915.0 MHz</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5060,14 +5060,14 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>3819.833</v>
+        <v>888.165</v>
       </c>
       <c r="C141" t="n">
-        <v>3820.684</v>
+        <v>889.016</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3819.8 to 3820.7 MHz</t>
+          <t>GSM-900 assignment from 888.2 to 889.0 MHz</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5093,14 +5093,14 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1777.651</v>
+        <v>938.61</v>
       </c>
       <c r="C142" t="n">
-        <v>1784.658</v>
+        <v>945.617</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>LTE assignment from 1777.7 to 1784.7 MHz</t>
+          <t>GSM-900 assignment from 938.6 to 945.6 MHz</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5126,14 +5126,14 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>6372.497</v>
+        <v>817.0069999999999</v>
       </c>
       <c r="C143" t="n">
-        <v>6377.29</v>
+        <v>821</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6372.5 to 6377.3 MHz</t>
+          <t>LTE-800 assignment from 817.0 to 821.0 MHz</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5159,14 +5159,14 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1742.497</v>
+        <v>796.576</v>
       </c>
       <c r="C144" t="n">
-        <v>1743.001</v>
+        <v>797.081</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>LTE assignment from 1742.5 to 1743.0 MHz</t>
+          <t>LTE-800 assignment from 796.6 to 797.1 MHz</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5192,14 +5192,14 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>453.363</v>
+        <v>539.211</v>
       </c>
       <c r="C145" t="n">
-        <v>454.341</v>
+        <v>540.189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PMR assignment from 453.4 to 454.3 MHz</t>
+          <t>DVB-T UHF assignment from 539.2 to 540.2 MHz</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5225,14 +5225,14 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>466.99</v>
+        <v>955.403</v>
       </c>
       <c r="C146" t="n">
-        <v>468.365</v>
+        <v>956.778</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>PMR assignment from 467.0 to 468.4 MHz</t>
+          <t>GSM-900 assignment from 955.4 to 956.8 MHz</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5258,14 +5258,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>3436.824</v>
+        <v>883.138</v>
       </c>
       <c r="C147" t="n">
-        <v>3441.687</v>
+        <v>888.001</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -5274,7 +5274,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>5G assignment from 3436.8 to 3441.7 MHz</t>
+          <t>GSM-900 assignment from 883.1 to 888.0 MHz</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5291,14 +5291,14 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>6003.332</v>
+        <v>531.378</v>
       </c>
       <c r="C148" t="n">
-        <v>6007.167</v>
+        <v>535.213</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6003.3 to 6007.2 MHz</t>
+          <t>DVB-T UHF assignment from 531.4 to 535.2 MHz</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -5324,14 +5324,14 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>5967.174</v>
+        <v>882.874</v>
       </c>
       <c r="C149" t="n">
-        <v>5973.187</v>
+        <v>888.8869999999999</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Microwave assignment from 5967.2 to 5973.2 MHz</t>
+          <t>GSM-900 assignment from 882.9 to 888.9 MHz</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5357,14 +5357,14 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>4161.097</v>
+        <v>956.417</v>
       </c>
       <c r="C150" t="n">
-        <v>4163.534</v>
+        <v>958.855</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -5373,7 +5373,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Satellite assignment from 4161.1 to 4163.5 MHz</t>
+          <t>GSM-900 assignment from 956.4 to 958.9 MHz</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5390,14 +5390,14 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>3698.241</v>
+        <v>762.261</v>
       </c>
       <c r="C151" t="n">
-        <v>3698.704</v>
+        <v>762.724</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>5G assignment from 3698.2 to 3698.7 MHz</t>
+          <t>DVB-T UHF assignment from 762.3 to 762.7 MHz</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5423,14 +5423,14 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>6371.708</v>
+        <v>910.437</v>
       </c>
       <c r="C152" t="n">
-        <v>6376.874</v>
+        <v>915</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6371.7 to 6376.9 MHz</t>
+          <t>GSM-900 assignment from 910.4 to 915.0 MHz</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5456,14 +5456,14 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>6148.259</v>
+        <v>803.975</v>
       </c>
       <c r="C153" t="n">
-        <v>6153.632</v>
+        <v>809.348</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6148.3 to 6153.6 MHz</t>
+          <t>LTE-800 assignment from 804.0 to 809.3 MHz</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5489,14 +5489,14 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3550.536</v>
+        <v>617.518</v>
       </c>
       <c r="C154" t="n">
-        <v>3550.835</v>
+        <v>617.817</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>5G assignment from 3550.5 to 3550.8 MHz</t>
+          <t>DVB-T UHF assignment from 617.5 to 617.8 MHz</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5522,14 +5522,14 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>3863.421</v>
+        <v>841.497</v>
       </c>
       <c r="C155" t="n">
-        <v>3864.707</v>
+        <v>842.783</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3863.4 to 3864.7 MHz</t>
+          <t>LTE-800 assignment from 841.5 to 842.8 MHz</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5555,14 +5555,14 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>4038.872</v>
+        <v>735.529</v>
       </c>
       <c r="C156" t="n">
-        <v>4046.785</v>
+        <v>743.442</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Satellite assignment from 4038.9 to 4046.8 MHz</t>
+          <t>DVB-T UHF assignment from 735.5 to 743.4 MHz</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5588,14 +5588,14 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>464</v>
+        <v>905.052</v>
       </c>
       <c r="C157" t="n">
-        <v>469.621</v>
+        <v>910.674</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>PMR assignment from 464.0 to 469.6 MHz</t>
+          <t>GSM-900 assignment from 905.1 to 910.7 MHz</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5621,14 +5621,14 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>6114.008</v>
+        <v>842.984</v>
       </c>
       <c r="C158" t="n">
-        <v>6117.448</v>
+        <v>846.425</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6114.0 to 6117.4 MHz</t>
+          <t>LTE-800 assignment from 843.0 to 846.4 MHz</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5654,14 +5654,14 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>6046.932</v>
+        <v>565.542</v>
       </c>
       <c r="C159" t="n">
-        <v>6051.965</v>
+        <v>570.575</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6046.9 to 6052.0 MHz</t>
+          <t>DVB-T UHF assignment from 565.5 to 570.6 MHz</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5687,14 +5687,14 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3403.006</v>
+        <v>791.218</v>
       </c>
       <c r="C160" t="n">
-        <v>3405.337</v>
+        <v>793.549</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>5G assignment from 3403.0 to 3405.3 MHz</t>
+          <t>LTE-800 assignment from 791.2 to 793.5 MHz</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5720,14 +5720,14 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>6018.097</v>
+        <v>837.41</v>
       </c>
       <c r="C161" t="n">
-        <v>6021.019</v>
+        <v>840.333</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6018.1 to 6021.0 MHz</t>
+          <t>LTE-800 assignment from 837.4 to 840.3 MHz</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5753,14 +5753,14 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3432.013</v>
+        <v>882.728</v>
       </c>
       <c r="C162" t="n">
-        <v>3437.306</v>
+        <v>888.021</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>5G assignment from 3432.0 to 3437.3 MHz</t>
+          <t>GSM-900 assignment from 882.7 to 888.0 MHz</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5786,14 +5786,14 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>3757.747</v>
+        <v>817.002</v>
       </c>
       <c r="C163" t="n">
-        <v>3763.55</v>
+        <v>821</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -5802,7 +5802,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>5G assignment from 3757.7 to 3763.5 MHz</t>
+          <t>LTE-800 assignment from 817.0 to 821.0 MHz</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5819,14 +5819,14 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>6411.559</v>
+        <v>851.251</v>
       </c>
       <c r="C164" t="n">
-        <v>6416.517</v>
+        <v>856.21</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6411.6 to 6416.5 MHz</t>
+          <t>DVB-T UHF assignment from 851.3 to 856.2 MHz</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5852,14 +5852,14 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>936.758</v>
+        <v>750.917</v>
       </c>
       <c r="C165" t="n">
-        <v>942.155</v>
+        <v>756.314</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>GSM assignment from 936.8 to 942.2 MHz</t>
+          <t>DVB-T UHF assignment from 750.9 to 756.3 MHz</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5885,14 +5885,14 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1741.61</v>
+        <v>796.424</v>
       </c>
       <c r="C166" t="n">
-        <v>1744.915</v>
+        <v>799.729</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>LTE assignment from 1741.6 to 1744.9 MHz</t>
+          <t>LTE-800 assignment from 796.4 to 799.7 MHz</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5918,14 +5918,14 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1799.543</v>
+        <v>898.015</v>
       </c>
       <c r="C167" t="n">
-        <v>1806.645</v>
+        <v>905.116</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>LTE assignment from 1799.5 to 1806.6 MHz</t>
+          <t>GSM-900 assignment from 898.0 to 905.1 MHz</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5951,14 +5951,14 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1795.532</v>
+        <v>846.677</v>
       </c>
       <c r="C168" t="n">
-        <v>1804.859</v>
+        <v>856.004</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>LTE assignment from 1795.5 to 1804.9 MHz</t>
+          <t>LTE-800 assignment from 846.7 to 856.0 MHz</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5984,14 +5984,14 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>909.169</v>
+        <v>892.554</v>
       </c>
       <c r="C169" t="n">
-        <v>913.766</v>
+        <v>897.151</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>GSM assignment from 909.2 to 913.8 MHz</t>
+          <t>GSM-900 assignment from 892.6 to 897.2 MHz</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6017,14 +6017,14 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>905.466</v>
+        <v>841.348</v>
       </c>
       <c r="C170" t="n">
-        <v>913.5839999999999</v>
+        <v>849.466</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>GSM assignment from 905.5 to 913.6 MHz</t>
+          <t>LTE-800 assignment from 841.3 to 849.5 MHz</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6050,14 +6050,14 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>6304.354</v>
+        <v>813.047</v>
       </c>
       <c r="C171" t="n">
-        <v>6310.351</v>
+        <v>819.043</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6304.4 to 6310.4 MHz</t>
+          <t>LTE-800 assignment from 813.0 to 819.0 MHz</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -6083,14 +6083,14 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>907.561</v>
+        <v>801.117</v>
       </c>
       <c r="C172" t="n">
-        <v>916.8630000000001</v>
+        <v>810.42</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>GSM assignment from 907.6 to 916.9 MHz</t>
+          <t>LTE-800 assignment from 801.1 to 810.4 MHz</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -6116,14 +6116,14 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>3762.024</v>
+        <v>518.6</v>
       </c>
       <c r="C173" t="n">
-        <v>3769.36</v>
+        <v>525.936</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3762.0 to 3769.4 MHz</t>
+          <t>DVB-T UHF assignment from 518.6 to 525.9 MHz</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -6149,14 +6149,14 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1721.238</v>
+        <v>496</v>
       </c>
       <c r="C174" t="n">
-        <v>1728.675</v>
+        <v>503.437</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>LTE assignment from 1721.2 to 1728.7 MHz</t>
+          <t>DVB-T UHF assignment from 496.0 to 503.4 MHz</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -6182,14 +6182,14 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>452.656</v>
+        <v>884.752</v>
       </c>
       <c r="C175" t="n">
-        <v>460.629</v>
+        <v>892.725</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>PMR assignment from 452.7 to 460.6 MHz</t>
+          <t>GSM-900 assignment from 884.8 to 892.7 MHz</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -6215,14 +6215,14 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>3781.969</v>
+        <v>795.764</v>
       </c>
       <c r="C176" t="n">
-        <v>3790.133</v>
+        <v>803.928</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3782.0 to 3790.1 MHz</t>
+          <t>LTE-800 assignment from 795.8 to 803.9 MHz</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -6248,14 +6248,14 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>3879.056</v>
+        <v>937.2</v>
       </c>
       <c r="C177" t="n">
-        <v>3887.841</v>
+        <v>945.985</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3879.1 to 3887.8 MHz</t>
+          <t>GSM-900 assignment from 937.2 to 946.0 MHz</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -6281,14 +6281,14 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>3684.799</v>
+        <v>811.7</v>
       </c>
       <c r="C178" t="n">
-        <v>3693.806</v>
+        <v>820.706</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>5G assignment from 3684.8 to 3693.8 MHz</t>
+          <t>LTE-800 assignment from 811.7 to 820.7 MHz</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6314,14 +6314,14 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1784.148</v>
+        <v>894.917</v>
       </c>
       <c r="C179" t="n">
-        <v>1789.965</v>
+        <v>900.734</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>LTE assignment from 1784.1 to 1790.0 MHz</t>
+          <t>GSM-900 assignment from 894.9 to 900.7 MHz</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -6347,14 +6347,14 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>6190.397</v>
+        <v>677.956</v>
       </c>
       <c r="C180" t="n">
-        <v>6191.156</v>
+        <v>678.716</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6190.4 to 6191.2 MHz</t>
+          <t>DVB-T UHF assignment from 678.0 to 678.7 MHz</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -6380,14 +6380,14 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>3572.18</v>
+        <v>894.672</v>
       </c>
       <c r="C181" t="n">
-        <v>3575.575</v>
+        <v>898.067</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>5G assignment from 3572.2 to 3575.6 MHz</t>
+          <t>GSM-900 assignment from 894.7 to 898.1 MHz</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -6413,14 +6413,14 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>4138.436</v>
+        <v>813.544</v>
       </c>
       <c r="C182" t="n">
-        <v>4143.441</v>
+        <v>818.549</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Satellite assignment from 4138.4 to 4143.4 MHz</t>
+          <t>DVB-T UHF assignment from 813.5 to 818.5 MHz</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -6446,14 +6446,14 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>891.982</v>
+        <v>529.3049999999999</v>
       </c>
       <c r="C183" t="n">
-        <v>895.168</v>
+        <v>532.491</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -6462,7 +6462,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>GSM assignment from 892.0 to 895.2 MHz</t>
+          <t>DVB-T UHF assignment from 529.3 to 532.5 MHz</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6479,14 +6479,14 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1715.667</v>
+        <v>926.14</v>
       </c>
       <c r="C184" t="n">
-        <v>1721.409</v>
+        <v>931.8819999999999</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>LTE assignment from 1715.7 to 1721.4 MHz</t>
+          <t>GSM-900 assignment from 926.1 to 931.9 MHz</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -6512,14 +6512,14 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>907.024</v>
+        <v>800.92</v>
       </c>
       <c r="C185" t="n">
-        <v>915.255</v>
+        <v>809.151</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>GSM assignment from 907.0 to 915.3 MHz</t>
+          <t>LTE-800 assignment from 800.9 to 809.2 MHz</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6545,14 +6545,14 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>5988.617</v>
+        <v>884.335</v>
       </c>
       <c r="C186" t="n">
-        <v>5992.65</v>
+        <v>888.3680000000001</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Microwave assignment from 5988.6 to 5992.6 MHz</t>
+          <t>GSM-900 assignment from 884.3 to 888.4 MHz</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6578,14 +6578,14 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>6039.396</v>
+        <v>932.795</v>
       </c>
       <c r="C187" t="n">
-        <v>6046.647</v>
+        <v>940.045</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6039.4 to 6046.6 MHz</t>
+          <t>GSM-900 assignment from 932.8 to 940.0 MHz</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6611,14 +6611,14 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>934.822</v>
+        <v>903.5940000000001</v>
       </c>
       <c r="C188" t="n">
-        <v>940.295</v>
+        <v>909.067</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>GSM assignment from 934.8 to 940.3 MHz</t>
+          <t>GSM-900 assignment from 903.6 to 909.1 MHz</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6644,14 +6644,14 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>955.7670000000001</v>
+        <v>818.813</v>
       </c>
       <c r="C189" t="n">
-        <v>959.258</v>
+        <v>821</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>GSM assignment from 955.8 to 959.3 MHz</t>
+          <t>LTE-800 assignment from 818.8 to 821.0 MHz</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6677,14 +6677,14 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>LTE</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1758.66</v>
+        <v>840.35</v>
       </c>
       <c r="C190" t="n">
-        <v>1764.848</v>
+        <v>846.538</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>LTE assignment from 1758.7 to 1764.8 MHz</t>
+          <t>LTE-800 assignment from 840.3 to 846.5 MHz</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6710,14 +6710,14 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PMR</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>451.915</v>
+        <v>834.923</v>
       </c>
       <c r="C191" t="n">
-        <v>454.55</v>
+        <v>837.558</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>PMR assignment from 451.9 to 454.5 MHz</t>
+          <t>LTE-800 assignment from 834.9 to 837.6 MHz</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6743,14 +6743,14 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3768.077</v>
+        <v>817.752</v>
       </c>
       <c r="C192" t="n">
-        <v>3775.179</v>
+        <v>821</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>5G assignment from 3768.1 to 3775.2 MHz</t>
+          <t>LTE-800 assignment from 817.8 to 821.0 MHz</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6776,14 +6776,14 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>4002.751</v>
+        <v>707.226</v>
       </c>
       <c r="C193" t="n">
-        <v>4007.05</v>
+        <v>711.524</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Satellite assignment from 4002.8 to 4007.0 MHz</t>
+          <t>DVB-T UHF assignment from 707.2 to 711.5 MHz</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6809,14 +6809,14 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>953.12</v>
+        <v>956.4690000000001</v>
       </c>
       <c r="C194" t="n">
-        <v>957.683</v>
+        <v>960</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>GSM assignment from 953.1 to 957.7 MHz</t>
+          <t>GSM-900 assignment from 956.5 to 960.0 MHz</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -6842,14 +6842,14 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>3734.72</v>
+        <v>815.328</v>
       </c>
       <c r="C195" t="n">
-        <v>3736.054</v>
+        <v>816.662</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>5G assignment from 3734.7 to 3736.1 MHz</t>
+          <t>LTE-800 assignment from 815.3 to 816.7 MHz</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6875,14 +6875,14 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>GSM</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>920.9880000000001</v>
+        <v>897.64</v>
       </c>
       <c r="C196" t="n">
-        <v>926.942</v>
+        <v>903.5940000000001</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>GSM assignment from 921.0 to 926.9 MHz</t>
+          <t>GSM-900 assignment from 897.6 to 903.6 MHz</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -6908,14 +6908,14 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Satellite</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>3867.263</v>
+        <v>800.721</v>
       </c>
       <c r="C197" t="n">
-        <v>3875.312</v>
+        <v>808.769</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Satellite assignment from 3867.3 to 3875.3 MHz</t>
+          <t>LTE-800 assignment from 800.7 to 808.8 MHz</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -6941,14 +6941,14 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>DVB-T UHF</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>6123.686</v>
+        <v>625.684</v>
       </c>
       <c r="C198" t="n">
-        <v>6129.106</v>
+        <v>631.104</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6123.7 to 6129.1 MHz</t>
+          <t>DVB-T UHF assignment from 625.7 to 631.1 MHz</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -6974,14 +6974,14 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>LTE-800</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>6098.13</v>
+        <v>842.062</v>
       </c>
       <c r="C199" t="n">
-        <v>6105.531</v>
+        <v>849.463</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6098.1 to 6105.5 MHz</t>
+          <t>LTE-800 assignment from 842.1 to 849.5 MHz</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7007,14 +7007,14 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>6150.767</v>
+        <v>895.383</v>
       </c>
       <c r="C200" t="n">
-        <v>6152.262</v>
+        <v>896.877</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Microwave assignment from 6150.8 to 6152.3 MHz</t>
+          <t>GSM-900 assignment from 895.4 to 896.9 MHz</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7040,14 +7040,14 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Microwave</t>
+          <t>GSM-900</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>5941.906</v>
+        <v>881.152</v>
       </c>
       <c r="C201" t="n">
-        <v>5945.089</v>
+        <v>884.335</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Microwave assignment from 5941.9 to 5945.1 MHz</t>
+          <t>GSM-900 assignment from 881.2 to 884.3 MHz</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -7067,3306 +7067,6 @@
       <c r="G201" t="inlineStr">
         <is>
           <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>LTE</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>1747.196</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1749.402</v>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>LTE assignment from 1747.2 to 1749.4 MHz</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>GSM</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>891.744</v>
-      </c>
-      <c r="C203" t="n">
-        <v>895.949</v>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>GSM assignment from 891.7 to 895.9 MHz</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>GSM</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>903.668</v>
-      </c>
-      <c r="C204" t="n">
-        <v>906.836</v>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>GSM assignment from 903.7 to 906.8 MHz</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>4099.091</v>
-      </c>
-      <c r="C205" t="n">
-        <v>4102.65</v>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 4099.1 to 4102.7 MHz</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>5G</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>3550.713</v>
-      </c>
-      <c r="C206" t="n">
-        <v>3559.095</v>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>5G assignment from 3550.7 to 3559.1 MHz</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>GSM</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>936.4109999999999</v>
-      </c>
-      <c r="C207" t="n">
-        <v>941.734</v>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>GSM assignment from 936.4 to 941.7 MHz</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>5G</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>3598.308</v>
-      </c>
-      <c r="C208" t="n">
-        <v>3605.985</v>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>5G assignment from 3598.3 to 3606.0 MHz</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>5962.676</v>
-      </c>
-      <c r="C209" t="n">
-        <v>5970.233</v>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 5962.7 to 5970.2 MHz</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>5G</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>3610.105</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3618.132</v>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>5G assignment from 3610.1 to 3618.1 MHz</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>6357.63</v>
-      </c>
-      <c r="C211" t="n">
-        <v>6361.769</v>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 6357.6 to 6361.8 MHz</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>LTE</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>1823.55</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1823.845</v>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>LTE assignment from 1823.5 to 1823.8 MHz</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>6014.094</v>
-      </c>
-      <c r="C213" t="n">
-        <v>6020.656</v>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 6014.1 to 6020.7 MHz</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>454.62</v>
-      </c>
-      <c r="C214" t="n">
-        <v>461.871</v>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>PMR assignment from 454.6 to 461.9 MHz</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>GSM</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>891.145</v>
-      </c>
-      <c r="C215" t="n">
-        <v>895.269</v>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>GSM assignment from 891.1 to 895.3 MHz</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>GSM</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>930.026</v>
-      </c>
-      <c r="C216" t="n">
-        <v>937.4109999999999</v>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>GSM assignment from 930.0 to 937.4 MHz</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>466.652</v>
-      </c>
-      <c r="C217" t="n">
-        <v>470</v>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>PMR assignment from 466.7 to 470.0 MHz</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>4011.756</v>
-      </c>
-      <c r="C218" t="n">
-        <v>4015.181</v>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 4011.8 to 4015.2 MHz</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>GSM</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>882.704</v>
-      </c>
-      <c r="C219" t="n">
-        <v>891.028</v>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>GSM assignment from 882.7 to 891.0 MHz</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>456.892</v>
-      </c>
-      <c r="C220" t="n">
-        <v>465.517</v>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>PMR assignment from 456.9 to 465.5 MHz</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>6314.1</v>
-      </c>
-      <c r="C221" t="n">
-        <v>6315.331</v>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 6314.1 to 6315.3 MHz</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>5G</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>3587.955</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3589.858</v>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>5G assignment from 3588.0 to 3589.9 MHz</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>6295.102</v>
-      </c>
-      <c r="C223" t="n">
-        <v>6302.12</v>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 6295.1 to 6302.1 MHz</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>GSM</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>930.9589999999999</v>
-      </c>
-      <c r="C224" t="n">
-        <v>935.234</v>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>GSM assignment from 931.0 to 935.2 MHz</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>LTE</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>1826.816</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1833.68</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>LTE assignment from 1826.8 to 1833.7 MHz</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>GSM</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>944.389</v>
-      </c>
-      <c r="C226" t="n">
-        <v>949.42</v>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>GSM assignment from 944.4 to 949.4 MHz</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>GSM</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>919.3</v>
-      </c>
-      <c r="C227" t="n">
-        <v>926.53</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>GSM assignment from 919.3 to 926.5 MHz</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G227" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>LTE</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>1754.563</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1757.301</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>LTE assignment from 1754.6 to 1757.3 MHz</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>LTE</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>1822.391</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1824.227</v>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>LTE assignment from 1822.4 to 1824.2 MHz</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>3891.186</v>
-      </c>
-      <c r="C230" t="n">
-        <v>3896.423</v>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 3891.2 to 3896.4 MHz</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>464.023</v>
-      </c>
-      <c r="C231" t="n">
-        <v>464.942</v>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>PMR assignment from 464.0 to 464.9 MHz</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>3894.259</v>
-      </c>
-      <c r="C232" t="n">
-        <v>3897.217</v>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 3894.3 to 3897.2 MHz</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>LTE</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>1760.214</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1765.921</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>LTE assignment from 1760.2 to 1765.9 MHz</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>5992.366</v>
-      </c>
-      <c r="C234" t="n">
-        <v>5997.255</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 5992.4 to 5997.3 MHz</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>461.306</v>
-      </c>
-      <c r="C235" t="n">
-        <v>461.916</v>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>PMR assignment from 461.3 to 461.9 MHz</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>456.351</v>
-      </c>
-      <c r="C236" t="n">
-        <v>464.083</v>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>PMR assignment from 456.4 to 464.1 MHz</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>6130.984</v>
-      </c>
-      <c r="C237" t="n">
-        <v>6138.063</v>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 6131.0 to 6138.1 MHz</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>451.443</v>
-      </c>
-      <c r="C238" t="n">
-        <v>452.313</v>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>PMR assignment from 451.4 to 452.3 MHz</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>450.1</v>
-      </c>
-      <c r="C239" t="n">
-        <v>451.22</v>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>PMR assignment from 450.1 to 451.2 MHz</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>468.28</v>
-      </c>
-      <c r="C240" t="n">
-        <v>470</v>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>PMR assignment from 468.3 to 470.0 MHz</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>3743.266</v>
-      </c>
-      <c r="C241" t="n">
-        <v>3752.852</v>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 3743.3 to 3752.9 MHz</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>6303.759</v>
-      </c>
-      <c r="C242" t="n">
-        <v>6311.028</v>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 6303.8 to 6311.0 MHz</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
-        <v>4150.779</v>
-      </c>
-      <c r="C243" t="n">
-        <v>4157.281</v>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 4150.8 to 4157.3 MHz</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
-        <v>6259.289</v>
-      </c>
-      <c r="C244" t="n">
-        <v>6259.826</v>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 6259.3 to 6259.8 MHz</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>460.56</v>
-      </c>
-      <c r="C245" t="n">
-        <v>465.345</v>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>PMR assignment from 460.6 to 465.3 MHz</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>GSM</t>
-        </is>
-      </c>
-      <c r="B246" t="n">
-        <v>937.751</v>
-      </c>
-      <c r="C246" t="n">
-        <v>939.758</v>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>GSM assignment from 937.8 to 939.8 MHz</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>5G</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
-        <v>3717.341</v>
-      </c>
-      <c r="C247" t="n">
-        <v>3724.818</v>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>5G assignment from 3717.3 to 3724.8 MHz</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
-        <v>459.926</v>
-      </c>
-      <c r="C248" t="n">
-        <v>466.407</v>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>PMR assignment from 459.9 to 466.4 MHz</t>
-        </is>
-      </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B249" t="n">
-        <v>6204.778</v>
-      </c>
-      <c r="C249" t="n">
-        <v>6209.64</v>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 6204.8 to 6209.6 MHz</t>
-        </is>
-      </c>
-      <c r="F249" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>LTE</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>1832.486</v>
-      </c>
-      <c r="C250" t="n">
-        <v>1833.233</v>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>LTE assignment from 1832.5 to 1833.2 MHz</t>
-        </is>
-      </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>5G</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>3664</v>
-      </c>
-      <c r="C251" t="n">
-        <v>3671.405</v>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>5G assignment from 3664.0 to 3671.4 MHz</t>
-        </is>
-      </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>4137.456</v>
-      </c>
-      <c r="C252" t="n">
-        <v>4141.689</v>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 4137.5 to 4141.7 MHz</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>LTE</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>1710.04</v>
-      </c>
-      <c r="C253" t="n">
-        <v>1711.976</v>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>LTE assignment from 1710.0 to 1712.0 MHz</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>451.331</v>
-      </c>
-      <c r="C254" t="n">
-        <v>451.524</v>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr">
-        <is>
-          <t>PMR assignment from 451.3 to 451.5 MHz</t>
-        </is>
-      </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G254" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>5943.761</v>
-      </c>
-      <c r="C255" t="n">
-        <v>5948.611</v>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 5943.8 to 5948.6 MHz</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>457.567</v>
-      </c>
-      <c r="C256" t="n">
-        <v>458.575</v>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>PMR assignment from 457.6 to 458.6 MHz</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G256" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>GSM</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>937.849</v>
-      </c>
-      <c r="C257" t="n">
-        <v>937.9829999999999</v>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>GSM assignment from 937.8 to 938.0 MHz</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G257" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>5G</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>3740.276</v>
-      </c>
-      <c r="C258" t="n">
-        <v>3747.46</v>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>5G assignment from 3740.3 to 3747.5 MHz</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>4154.259</v>
-      </c>
-      <c r="C259" t="n">
-        <v>4154.806</v>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 4154.3 to 4154.8 MHz</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G259" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>468.049</v>
-      </c>
-      <c r="C260" t="n">
-        <v>470</v>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>PMR assignment from 468.0 to 470.0 MHz</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G260" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>LTE</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>1858.571</v>
-      </c>
-      <c r="C261" t="n">
-        <v>1868.024</v>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>LTE assignment from 1858.6 to 1868.0 MHz</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G261" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>6008.35</v>
-      </c>
-      <c r="C262" t="n">
-        <v>6018.263</v>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 6008.3 to 6018.3 MHz</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>4024.174</v>
-      </c>
-      <c r="C263" t="n">
-        <v>4030.29</v>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 4024.2 to 4030.3 MHz</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>5G</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>3470.435</v>
-      </c>
-      <c r="C264" t="n">
-        <v>3472.717</v>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>5G assignment from 3470.4 to 3472.7 MHz</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
-        <v>4099.584</v>
-      </c>
-      <c r="C265" t="n">
-        <v>4105.919</v>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 4099.6 to 4105.9 MHz</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>3998.04</v>
-      </c>
-      <c r="C266" t="n">
-        <v>4003.338</v>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 3998.0 to 4003.3 MHz</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>5G</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>3595.983</v>
-      </c>
-      <c r="C267" t="n">
-        <v>3605.947</v>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>5G assignment from 3596.0 to 3605.9 MHz</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G267" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>4010.846</v>
-      </c>
-      <c r="C268" t="n">
-        <v>4018.35</v>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 4010.8 to 4018.3 MHz</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>6354.203</v>
-      </c>
-      <c r="C269" t="n">
-        <v>6358.832</v>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 6354.2 to 6358.8 MHz</t>
-        </is>
-      </c>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>LTE</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
-        <v>1860.198</v>
-      </c>
-      <c r="C270" t="n">
-        <v>1869.759</v>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr">
-        <is>
-          <t>LTE assignment from 1860.2 to 1869.8 MHz</t>
-        </is>
-      </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>4026.966</v>
-      </c>
-      <c r="C271" t="n">
-        <v>4032.519</v>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E271" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 4027.0 to 4032.5 MHz</t>
-        </is>
-      </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G271" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B272" t="n">
-        <v>5927.536</v>
-      </c>
-      <c r="C272" t="n">
-        <v>5934.524</v>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 5927.5 to 5934.5 MHz</t>
-        </is>
-      </c>
-      <c r="F272" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>LTE</t>
-        </is>
-      </c>
-      <c r="B273" t="n">
-        <v>1872.599</v>
-      </c>
-      <c r="C273" t="n">
-        <v>1873.782</v>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr">
-        <is>
-          <t>LTE assignment from 1872.6 to 1873.8 MHz</t>
-        </is>
-      </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B274" t="n">
-        <v>451.169</v>
-      </c>
-      <c r="C274" t="n">
-        <v>460.01</v>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>PMR assignment from 451.2 to 460.0 MHz</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>5G</t>
-        </is>
-      </c>
-      <c r="B275" t="n">
-        <v>3627.956</v>
-      </c>
-      <c r="C275" t="n">
-        <v>3634.611</v>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>5G assignment from 3628.0 to 3634.6 MHz</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B276" t="n">
-        <v>4066.221</v>
-      </c>
-      <c r="C276" t="n">
-        <v>4071.482</v>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 4066.2 to 4071.5 MHz</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>GSM</t>
-        </is>
-      </c>
-      <c r="B277" t="n">
-        <v>892.4299999999999</v>
-      </c>
-      <c r="C277" t="n">
-        <v>894.1180000000001</v>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>GSM assignment from 892.4 to 894.1 MHz</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G277" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B278" t="n">
-        <v>6389.115</v>
-      </c>
-      <c r="C278" t="n">
-        <v>6390.263</v>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 6389.1 to 6390.3 MHz</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B279" t="n">
-        <v>6364.937</v>
-      </c>
-      <c r="C279" t="n">
-        <v>6374.554</v>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 6364.9 to 6374.6 MHz</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>5G</t>
-        </is>
-      </c>
-      <c r="B280" t="n">
-        <v>3402.053</v>
-      </c>
-      <c r="C280" t="n">
-        <v>3410.27</v>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>5G assignment from 3402.1 to 3410.3 MHz</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B281" t="n">
-        <v>5925.559</v>
-      </c>
-      <c r="C281" t="n">
-        <v>5931.165</v>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 5925.6 to 5931.2 MHz</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B282" t="n">
-        <v>3796.373</v>
-      </c>
-      <c r="C282" t="n">
-        <v>3797.306</v>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 3796.4 to 3797.3 MHz</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>LTE</t>
-        </is>
-      </c>
-      <c r="B283" t="n">
-        <v>1729.578</v>
-      </c>
-      <c r="C283" t="n">
-        <v>1733.407</v>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>LTE assignment from 1729.6 to 1733.4 MHz</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B284" t="n">
-        <v>452.441</v>
-      </c>
-      <c r="C284" t="n">
-        <v>455.346</v>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>PMR assignment from 452.4 to 455.3 MHz</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B285" t="n">
-        <v>3870.594</v>
-      </c>
-      <c r="C285" t="n">
-        <v>3876.957</v>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 3870.6 to 3877.0 MHz</t>
-        </is>
-      </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B286" t="n">
-        <v>467.807</v>
-      </c>
-      <c r="C286" t="n">
-        <v>470</v>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>PMR assignment from 467.8 to 470.0 MHz</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>GSM</t>
-        </is>
-      </c>
-      <c r="B287" t="n">
-        <v>940.908</v>
-      </c>
-      <c r="C287" t="n">
-        <v>948.023</v>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr">
-        <is>
-          <t>GSM assignment from 940.9 to 948.0 MHz</t>
-        </is>
-      </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B288" t="n">
-        <v>5962.273</v>
-      </c>
-      <c r="C288" t="n">
-        <v>5970.811</v>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 5962.3 to 5970.8 MHz</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>LTE</t>
-        </is>
-      </c>
-      <c r="B289" t="n">
-        <v>1785.367</v>
-      </c>
-      <c r="C289" t="n">
-        <v>1791.878</v>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr">
-        <is>
-          <t>LTE assignment from 1785.4 to 1791.9 MHz</t>
-        </is>
-      </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B290" t="n">
-        <v>5957.747</v>
-      </c>
-      <c r="C290" t="n">
-        <v>5965.98</v>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E290" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 5957.7 to 5966.0 MHz</t>
-        </is>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>LTE</t>
-        </is>
-      </c>
-      <c r="B291" t="n">
-        <v>1752.674</v>
-      </c>
-      <c r="C291" t="n">
-        <v>1752.784</v>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr">
-        <is>
-          <t>LTE assignment from 1752.7 to 1752.8 MHz</t>
-        </is>
-      </c>
-      <c r="F291" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B292" t="n">
-        <v>6396.208</v>
-      </c>
-      <c r="C292" t="n">
-        <v>6397.319</v>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E292" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 6396.2 to 6397.3 MHz</t>
-        </is>
-      </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B293" t="n">
-        <v>465.692</v>
-      </c>
-      <c r="C293" t="n">
-        <v>468.746</v>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>PMR assignment from 465.7 to 468.7 MHz</t>
-        </is>
-      </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B294" t="n">
-        <v>3814.797</v>
-      </c>
-      <c r="C294" t="n">
-        <v>3816.197</v>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 3814.8 to 3816.2 MHz</t>
-        </is>
-      </c>
-      <c r="F294" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Microwave</t>
-        </is>
-      </c>
-      <c r="B295" t="n">
-        <v>6395.864</v>
-      </c>
-      <c r="C295" t="n">
-        <v>6400.12</v>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E295" t="inlineStr">
-        <is>
-          <t>Microwave assignment from 6395.9 to 6400.1 MHz</t>
-        </is>
-      </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B296" t="n">
-        <v>3836.833</v>
-      </c>
-      <c r="C296" t="n">
-        <v>3846.675</v>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 3836.8 to 3846.7 MHz</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>PMR</t>
-        </is>
-      </c>
-      <c r="B297" t="n">
-        <v>454.369</v>
-      </c>
-      <c r="C297" t="n">
-        <v>456.579</v>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>PMR assignment from 454.4 to 456.6 MHz</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>5G</t>
-        </is>
-      </c>
-      <c r="B298" t="n">
-        <v>3744.879</v>
-      </c>
-      <c r="C298" t="n">
-        <v>3749.664</v>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>5G assignment from 3744.9 to 3749.7 MHz</t>
-        </is>
-      </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B299" t="n">
-        <v>4133.443</v>
-      </c>
-      <c r="C299" t="n">
-        <v>4141.231</v>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 4133.4 to 4141.2 MHz</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>Satellite</t>
-        </is>
-      </c>
-      <c r="B300" t="n">
-        <v>4079.751</v>
-      </c>
-      <c r="C300" t="n">
-        <v>4086.051</v>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr">
-        <is>
-          <t>Satellite assignment from 4079.8 to 4086.1 MHz</t>
-        </is>
-      </c>
-      <c r="F300" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>Mobile</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>GSM</t>
-        </is>
-      </c>
-      <c r="B301" t="n">
-        <v>928.715</v>
-      </c>
-      <c r="C301" t="n">
-        <v>936.701</v>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr">
-        <is>
-          <t>GSM assignment from 928.7 to 936.7 MHz</t>
-        </is>
-      </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>Satellite</t>
         </is>
       </c>
     </row>
